--- a/starter/src/main/resources/excel/auto_reply.xlsx
+++ b/starter/src/main/resources/excel/auto_reply.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="9340"/>
+    <workbookView windowWidth="30380" windowHeight="10760"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>类型(五种类型：TEXT、IMAGE、VIDEO、AUDIO、FILE)</t>
+  </si>
   <si>
     <t>自动回复</t>
+  </si>
+  <si>
+    <t>回复语</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
   <si>
     <t>离开一会儿，稍后回来</t>
@@ -1037,35 +1049,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="73.875" customWidth="1"/>
+    <col min="1" max="1" width="23.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="65.5384615384615" customWidth="1"/>
+    <col min="3" max="3" width="56.8846153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
